--- a/代码清单+测试用例/单元测试.xlsx
+++ b/代码清单+测试用例/单元测试.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E11FBFF-2349-4925-A045-ECA745F1BBBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C6FF7E-FCDA-4601-8F62-85181CD254F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出征测试" sheetId="2" r:id="rId1"/>
@@ -21,10 +21,15 @@
     <sheet name="流放武将" sheetId="12" r:id="rId11"/>
     <sheet name="登庸武将" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1572,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B424EE1-870C-41BC-8B20-CC9E65C9AD53}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1739,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DD863E-4667-44F3-BFD6-75BD4B8D247B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
@@ -2340,7 +2345,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2429,7 +2434,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2525,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
